--- a/biology/Zoologie/Idiurus/Idiurus.xlsx
+++ b/biology/Zoologie/Idiurus/Idiurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomalures nains
-Les Anomalures nains (Idiurus) sont un genre de mammifères rongeurs de la famille des Anomaluridae[1]. C'est le zoologiste allemand Paul Matschie (1861-1926) qui a créé en 1894 ce genre qui comprend deux espèces d'écureuils volants nains d'Afrique.
+Les Anomalures nains (Idiurus) sont un genre de mammifères rongeurs de la famille des Anomaluridae. C'est le zoologiste allemand Paul Matschie (1861-1926) qui a créé en 1894 ce genre qui comprend deux espèces d'écureuils volants nains d'Afrique.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (11 oct. 2012)[2] et ITIS      (11 oct. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (11 oct. 2012) et ITIS      (11 oct. 2012) :
 Idiurus macrotis Miller, 1898 — Anomalure nain ou Anomalure nain à longues oreilles.
 Idiurus zenkeri Matschie, 1894 — Anomalure nain de Zenker ou Écureuil volant de Zenker
-Selon NCBI  (11 oct. 2012)[4] :
+Selon NCBI  (11 oct. 2012) :
 Idiurus macrotis</t>
         </is>
       </c>
